--- a/data/qa_asmt_create.xlsx
+++ b/data/qa_asmt_create.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19321"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ACC3FD1-6C72-452A-8AEF-95EB733087AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -29,42 +28,63 @@
     <t>grade_type</t>
   </si>
   <si>
-    <t>instruction</t>
-  </si>
-  <si>
-    <t>group_formads</t>
-  </si>
-  <si>
-    <t>0001_Ren_GP</t>
-  </si>
-  <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>Abc def</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>0002_Ren_GP</t>
-  </si>
-  <si>
-    <t>A 2</t>
-  </si>
-  <si>
-    <t>BBB</t>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Rubric</t>
+  </si>
+  <si>
+    <t>post_sub_instructions</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ins_symbol~!@#$%^&amp;*()_+=-0987654321`{}:"|&lt;&gt;?][\';,./</t>
+  </si>
+  <si>
+    <t>This message is post submission instructions text.</t>
+  </si>
+  <si>
+    <t>This message is instructions text.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_in Test long string less than 400 charactorsSteps to reproduce:1. Login bigben (https:bigben-moodle.youseeu.com) as educator-1.2. Select Course - bigbengenerallink.3. Create any type of project assignment, such as individual project and save it.4. Edit this assignment.5. Click the revord icon in Instructions.6. Click UPLOAD VIDEO button.7. Click SELECT FILE button to select file from local host.</t>
+  </si>
+  <si>
+    <t>Ren_QA_0002</t>
+  </si>
+  <si>
+    <t>Ren_QA_0001</t>
+  </si>
+  <si>
+    <t>instructions</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>qestion1</t>
+  </si>
+  <si>
+    <t>question2</t>
+  </si>
+  <si>
+    <t>question3</t>
+  </si>
+  <si>
+    <t>what's tcp/ip protocol?</t>
+  </si>
+  <si>
+    <t>reason about implemented error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,12 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -152,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,7 +227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -398,31 +421,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,51 +461,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>43213</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>43219</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/qa_asmt_create.xlsx
+++ b/data/qa_asmt_create.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancy/Study/bigben/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="340" yWindow="7180" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,12 +61,6 @@
     <t>PS_in Test long string less than 400 charactorsSteps to reproduce:1. Login bigben (https:bigben-moodle.youseeu.com) as educator-1.2. Select Course - bigbengenerallink.3. Create any type of project assignment, such as individual project and save it.4. Edit this assignment.5. Click the revord icon in Instructions.6. Click UPLOAD VIDEO button.7. Click SELECT FILE button to select file from local host.</t>
   </si>
   <si>
-    <t>Ren_QA_0002</t>
-  </si>
-  <si>
-    <t>Ren_QA_0001</t>
-  </si>
-  <si>
     <t>instructions</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -74,17 +78,31 @@
   </si>
   <si>
     <t>reason about implemented error</t>
+  </si>
+  <si>
+    <t>Ren_QA_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren_QA_0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +135,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -421,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,22 +450,22 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,27 +479,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>43213</v>
@@ -496,18 +514,18 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>43219</v>
@@ -522,10 +540,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/qa_asmt_create.xlsx
+++ b/data/qa_asmt_create.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancy/Study/bigben/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancy/Study/bongo13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="7180" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="340" yWindow="7180" windowWidth="32820" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Rubric</t>
-  </si>
-  <si>
     <t>post_sub_instructions</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -65,9 +62,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>qestion1</t>
-  </si>
-  <si>
     <t>question2</t>
   </si>
   <si>
@@ -85,6 +79,14 @@
   </si>
   <si>
     <t>Ren_QA_0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubric</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +452,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -479,19 +481,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -499,25 +501,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>43213</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.2">
@@ -525,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>43219</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
